--- a/files/export.XLSX
+++ b/files/export.XLSX
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseidler\workspace_luna\PromptToBoatConverter\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -1345,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="G58" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2127,13 +2123,13 @@
         <v>42586</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I16" s="2">
         <v>0.41666666666666669</v>
       </c>
       <c r="J16" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="K16">
         <v>70</v>
@@ -4477,13 +4473,13 @@
         <v>42583</v>
       </c>
       <c r="H63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I63" s="2">
         <v>0.5</v>
       </c>
       <c r="J63" s="2">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="K63">
         <v>100</v>

--- a/files/export.XLSX
+++ b/files/export.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="6435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14550" windowHeight="6435"/>
   </bookViews>
   <sheets>
     <sheet name="Buchungen August" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="50">
   <si>
     <t>Mitarbeiter</t>
   </si>
@@ -65,33 +65,18 @@
     <t>Heimstädt, Thomas</t>
   </si>
   <si>
-    <t>PS I</t>
-  </si>
-  <si>
     <t>EA2893 - eGesetzgebung TP ePartizipation</t>
   </si>
   <si>
-    <t>Teilnahme Kick-off Teilprojekt (TP) Arbeitshilfen im BMI</t>
-  </si>
-  <si>
     <t>[undefiniert]</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Vorbereitung Kick-off TP ePartizipation bei init (Erstellung Agenda und Foliensatz)</t>
-  </si>
-  <si>
-    <t>Moderation und Durchfüührung Kick-off zum TP ePartizipation bei init.</t>
-  </si>
-  <si>
     <t>Projektauftakt TP ePartizipation. Ausarbeitung Vorgehen zur Erstellung der Praxisstudie (AP 1).</t>
   </si>
   <si>
-    <t>Qualitätssicherung Gliederung Praxisstudie; redaktionelle Erweiterungen.</t>
-  </si>
-  <si>
     <t>Kleber, Julia</t>
   </si>
   <si>
@@ -140,24 +125,12 @@
     <t>Ausarbeitung Praxisbeispiel Red Tape Challenge zum Test des Kriterienkatalogs; Ausarbeitung Kapitel Herausforderungen von ePartizipation</t>
   </si>
   <si>
-    <t>Leps, Olof</t>
-  </si>
-  <si>
-    <t>Abstimmung von Schnittstellen zum TP Arbeitshilfen</t>
-  </si>
-  <si>
     <t>Ausarbeitung Kapitel "Was ist ePartizipation"</t>
   </si>
   <si>
-    <t>Erstellung Einführungsfoliensatz ePartizipation</t>
-  </si>
-  <si>
     <t>Weitere Arbeit am Kriterienkatalog</t>
   </si>
   <si>
-    <t>Abstimmung zu Richtungsentscheidungen über Partizipationsformen</t>
-  </si>
-  <si>
     <t>Weitere Ausarbeitung Praxisbeispiel Red Tape Challenge</t>
   </si>
   <si>
@@ -167,9 +140,6 @@
     <t>Aufbau der überarbeiteten Dokumentgliederung Praxisstudie</t>
   </si>
   <si>
-    <t>Abstimmung des weiteren Vorgehens zur Erstellung der Praxisstudie (AP 1).</t>
-  </si>
-  <si>
     <t>Ausarbeitung Praxisbeispiele für Portale</t>
   </si>
   <si>
@@ -189,6 +159,12 @@
   </si>
   <si>
     <t>Startzeit</t>
+  </si>
+  <si>
+    <t>Kleber, Dr. Julia</t>
+  </si>
+  <si>
+    <t>Olof Leps</t>
   </si>
 </sst>
 </file>
@@ -1007,15 +983,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
@@ -1030,7 +1007,7 @@
     <col min="15" max="15" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1050,13 +1027,13 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>6</v>
@@ -1065,13 +1042,13 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O1" t="s">
         <v>8</v>
@@ -1095,27 +1072,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1">
         <v>42601</v>
@@ -1151,157 +1128,167 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
       </c>
       <c r="I3" s="1">
-        <v>42557</v>
+        <v>42570</v>
       </c>
       <c r="J3" s="4">
         <v>42601</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1">
+        <v>42604</v>
+      </c>
+      <c r="J4" s="5">
+        <v>42604</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N4" s="2">
         <v>0.5</v>
       </c>
-      <c r="M3" s="2">
+      <c r="O4" s="2">
         <v>0.5</v>
       </c>
-      <c r="N3" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="U4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
         <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1">
-        <v>42570</v>
-      </c>
-      <c r="J4" s="4">
-        <v>42601</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="I5" s="1">
         <v>42604</v>
@@ -1313,16 +1300,16 @@
         <v>4</v>
       </c>
       <c r="L5" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M5" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="N5" s="2">
-        <v>0.5</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="O5" s="2">
-        <v>0.5</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1337,54 +1324,54 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
       </c>
       <c r="I6" s="1">
-        <v>42559</v>
+        <v>42577</v>
       </c>
       <c r="J6" s="4">
         <v>42604</v>
       </c>
-      <c r="K6">
-        <v>3</v>
+      <c r="K6" s="3">
+        <v>2</v>
       </c>
       <c r="L6" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.5</v>
+        <v>0.625</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0.83333333333333337</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1399,178 +1386,179 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
       </c>
       <c r="I7" s="1">
-        <v>42559</v>
-      </c>
-      <c r="J7" s="4">
-        <v>42604</v>
+        <v>42605</v>
+      </c>
+      <c r="J7" s="5">
+        <v>42605</v>
       </c>
       <c r="K7">
         <v>4</v>
       </c>
       <c r="L7" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="4">
+        <v>42577</v>
+      </c>
+      <c r="J8" s="4">
+        <v>42605</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="M8" s="6">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M7" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
-        <v>19</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="N8" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="1">
-        <v>42604</v>
-      </c>
-      <c r="J8" s="5">
-        <v>42604</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
       </c>
-      <c r="H9" t="s">
-        <v>30</v>
+      <c r="H9" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="I9" s="1">
-        <v>42577</v>
+        <v>42580</v>
       </c>
       <c r="J9" s="4">
-        <v>42604</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2</v>
+        <v>42605</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
       </c>
       <c r="L9" s="2">
-        <v>0.625</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M9" s="6">
-        <v>0.75</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="N9" s="6">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="O9" s="6">
-        <v>0.83333333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1585,40 +1573,40 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I10" s="1">
-        <v>42605</v>
+        <v>42606</v>
       </c>
       <c r="J10" s="5">
-        <v>42605</v>
+        <v>42606</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -1648,164 +1636,173 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="1">
+        <v>42606</v>
+      </c>
+      <c r="J11" s="5">
+        <v>42606</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="U11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="4">
-        <v>42577</v>
-      </c>
-      <c r="J11" s="4">
-        <v>42605</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="M11" s="6">
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1">
+        <v>42580</v>
+      </c>
+      <c r="J12" s="4">
+        <v>42606</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2</v>
+      </c>
+      <c r="L12" s="6">
         <v>0.54166666666666663</v>
       </c>
-      <c r="N11" s="6">
+      <c r="M12" s="6">
         <v>0.75</v>
       </c>
-      <c r="O11" s="6">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U11" s="3" t="s">
+      <c r="N12" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>17</v>
+      </c>
+      <c r="U12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="1">
-        <v>42570</v>
-      </c>
-      <c r="J12" s="4">
-        <v>42605</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12" t="s">
-        <v>19</v>
-      </c>
-      <c r="U12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
       </c>
       <c r="I13" s="1">
-        <v>42580</v>
-      </c>
-      <c r="J13" s="4">
-        <v>42605</v>
+        <v>42607</v>
+      </c>
+      <c r="J13" s="5">
+        <v>42607</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -1813,14 +1810,14 @@
       <c r="L13" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M13" s="6">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="N13" s="6">
+      <c r="M13" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N13" s="2">
         <v>0.5</v>
       </c>
-      <c r="O13" s="6">
-        <v>0.77083333333333337</v>
+      <c r="O13" s="2">
+        <v>0.5</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1835,54 +1832,54 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I14" s="1">
-        <v>42606</v>
+        <v>42607</v>
       </c>
       <c r="J14" s="5">
-        <v>42606</v>
+        <v>42607</v>
       </c>
       <c r="K14">
         <v>4</v>
       </c>
       <c r="L14" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M14" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="N14" s="2">
-        <v>0.5</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="O14" s="2">
-        <v>0.5</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1897,225 +1894,225 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
+      <c r="B15" t="s">
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="1">
+        <v>42580</v>
+      </c>
+      <c r="J15" s="4">
+        <v>42607</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="U15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="1">
-        <v>42597</v>
-      </c>
-      <c r="J15" s="4">
-        <v>42606</v>
-      </c>
-      <c r="K15">
-        <v>4</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15" t="s">
-        <v>19</v>
-      </c>
-      <c r="U15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I16" s="1">
-        <v>42606</v>
+        <v>42608</v>
       </c>
       <c r="J16" s="5">
-        <v>42606</v>
+        <v>42608</v>
       </c>
       <c r="K16">
         <v>4</v>
       </c>
       <c r="L16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>17</v>
+      </c>
+      <c r="U16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1">
+        <v>42586</v>
+      </c>
+      <c r="J17" s="4">
+        <v>42608</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="M17" s="6">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N17" s="6">
         <v>0.54166666666666663</v>
       </c>
-      <c r="N16" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16" t="s">
-        <v>19</v>
-      </c>
-      <c r="U16" t="s">
+      <c r="O17" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>17</v>
+      </c>
+      <c r="U17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="1">
-        <v>42580</v>
-      </c>
-      <c r="J17" s="4">
-        <v>42606</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="M17" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="N17" s="6">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="O17" s="6">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17" t="s">
-        <v>19</v>
-      </c>
-      <c r="U17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I18" s="1">
-        <v>42607</v>
+        <v>42611</v>
       </c>
       <c r="J18" s="5">
-        <v>42607</v>
+        <v>42611</v>
       </c>
       <c r="K18">
         <v>4</v>
@@ -2145,54 +2142,54 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>41</v>
+      <c r="B19" t="s">
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>49</v>
+      <c r="H19" t="s">
+        <v>33</v>
       </c>
       <c r="I19" s="1">
-        <v>42598</v>
-      </c>
-      <c r="J19" s="4">
-        <v>42607</v>
+        <v>42611</v>
+      </c>
+      <c r="J19" s="5">
+        <v>42611</v>
       </c>
       <c r="K19">
         <v>4</v>
       </c>
       <c r="L19" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M19" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="N19" s="2">
-        <v>0.5</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="O19" s="2">
-        <v>0.5</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2207,302 +2204,302 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="1">
+        <v>42586</v>
+      </c>
+      <c r="J20" s="4">
+        <v>42611</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
         <v>17</v>
       </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="1">
-        <v>42607</v>
-      </c>
-      <c r="J20" s="5">
-        <v>42607</v>
-      </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20" t="s">
-        <v>19</v>
-      </c>
       <c r="U20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
+      <c r="B21" t="s">
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>49</v>
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
       </c>
       <c r="I21" s="1">
-        <v>42598</v>
-      </c>
-      <c r="J21" s="4">
-        <v>42607</v>
+        <v>42612</v>
+      </c>
+      <c r="J21" s="5">
+        <v>42612</v>
       </c>
       <c r="K21">
         <v>4</v>
       </c>
       <c r="L21" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>17</v>
+      </c>
+      <c r="U21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="1">
+        <v>42612</v>
+      </c>
+      <c r="J22" s="5">
+        <v>42612</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M22" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N22" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O22" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21" t="s">
-        <v>19</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>17</v>
+      </c>
+      <c r="U22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
         <v>16</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="1">
+        <v>42584</v>
+      </c>
+      <c r="J23" s="4">
+        <v>42613</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
         <v>17</v>
       </c>
-      <c r="F22" t="s">
+      <c r="U23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
         <v>16</v>
       </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="1">
-        <v>42577</v>
-      </c>
-      <c r="J22" s="4">
-        <v>42607</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22" t="s">
-        <v>19</v>
-      </c>
-      <c r="U22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="1">
-        <v>42580</v>
-      </c>
-      <c r="J23" s="4">
-        <v>42607</v>
-      </c>
-      <c r="K23" s="3">
-        <v>2</v>
-      </c>
-      <c r="L23" s="6">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="M23" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="N23" s="6">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="O23" s="6">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23" t="s">
-        <v>19</v>
-      </c>
-      <c r="U23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I24" s="1">
-        <v>42608</v>
-      </c>
-      <c r="J24" s="5">
-        <v>42608</v>
+        <v>42584</v>
+      </c>
+      <c r="J24" s="4">
+        <v>42613</v>
       </c>
       <c r="K24">
         <v>4</v>
       </c>
       <c r="L24" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M24" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="N24" s="2">
-        <v>0.5</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="O24" s="2">
-        <v>0.5</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2517,241 +2514,241 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I25" s="1">
         <v>42597</v>
       </c>
       <c r="J25" s="4">
-        <v>42608</v>
+        <v>42606</v>
       </c>
       <c r="K25">
         <v>4</v>
       </c>
       <c r="L25" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>17</v>
+      </c>
+      <c r="U25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="1">
+        <v>42598</v>
+      </c>
+      <c r="J26" s="4">
+        <v>42607</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
+        <v>17</v>
+      </c>
+      <c r="U26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="1">
+        <v>42598</v>
+      </c>
+      <c r="J27" s="4">
+        <v>42607</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M25" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N25" s="6">
+      <c r="M27" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N27" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="O25" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25" t="s">
-        <v>19</v>
-      </c>
-      <c r="U25" t="s">
+      <c r="O27" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>17</v>
+      </c>
+      <c r="U27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="1">
-        <v>42583</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="1">
+        <v>42597</v>
+      </c>
+      <c r="J28" s="4">
         <v>42608</v>
-      </c>
-      <c r="K26">
-        <v>5</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="O26" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26" t="s">
-        <v>19</v>
-      </c>
-      <c r="U26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="1">
-        <v>42586</v>
-      </c>
-      <c r="J27" s="4">
-        <v>42608</v>
-      </c>
-      <c r="K27">
-        <v>6</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="M27" s="6">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="N27" s="6">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="O27" s="6">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27" t="s">
-        <v>19</v>
-      </c>
-      <c r="U27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="1">
-        <v>42611</v>
-      </c>
-      <c r="J28" s="5">
-        <v>42611</v>
       </c>
       <c r="K28">
         <v>4</v>
       </c>
       <c r="L28" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="M28" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M28" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N28" s="2">
+      <c r="N28" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="O28" s="6">
         <v>0.5</v>
       </c>
-      <c r="O28" s="2">
-        <v>0.5</v>
-      </c>
       <c r="P28">
         <v>0</v>
       </c>
@@ -2765,396 +2762,52 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="1">
-        <v>42611</v>
-      </c>
-      <c r="J29" s="5">
-        <v>42611</v>
-      </c>
-      <c r="K29">
-        <v>4</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="O29" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29" t="s">
-        <v>19</v>
-      </c>
-      <c r="U29" t="s">
+      <c r="I29" s="1"/>
+      <c r="J29" s="5"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="1">
-        <v>42586</v>
-      </c>
-      <c r="J30" s="4">
-        <v>42611</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="M30" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="N30" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O30" s="6">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30" t="s">
-        <v>19</v>
-      </c>
-      <c r="U30" t="s">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="1">
-        <v>42612</v>
-      </c>
-      <c r="J31" s="5">
-        <v>42612</v>
-      </c>
-      <c r="K31">
-        <v>4</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N31" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O31" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31" t="s">
-        <v>19</v>
-      </c>
-      <c r="U31" t="s">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="1">
-        <v>42612</v>
-      </c>
-      <c r="J32" s="5">
-        <v>42612</v>
-      </c>
-      <c r="K32">
-        <v>4</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="O32" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32" t="s">
-        <v>19</v>
-      </c>
-      <c r="U32" t="s">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="1">
-        <v>42584</v>
-      </c>
-      <c r="J33" s="4">
-        <v>42613</v>
-      </c>
-      <c r="K33">
-        <v>4</v>
-      </c>
-      <c r="L33" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M33" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N33" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33" t="s">
-        <v>19</v>
-      </c>
-      <c r="U33" t="s">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34" s="1">
-        <v>42584</v>
-      </c>
-      <c r="J34" s="4">
-        <v>42613</v>
-      </c>
-      <c r="K34">
-        <v>4</v>
-      </c>
-      <c r="L34" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="M34" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="N34" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="O34" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34" t="s">
-        <v>19</v>
-      </c>
-      <c r="U34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I35" s="1"/>
-      <c r="J35" s="5"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A2:U34">
-    <sortCondition ref="J2:J34"/>
-    <sortCondition ref="M2:M34"/>
+  <sortState ref="A2:U35">
+    <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
